--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.78791085457663</v>
+        <v>3.424501</v>
       </c>
       <c r="H2">
-        <v>2.78791085457663</v>
+        <v>10.273503</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.99204278133065</v>
+        <v>6.408252</v>
       </c>
       <c r="N2">
-        <v>5.99204278133065</v>
+        <v>19.224756</v>
       </c>
       <c r="O2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="P2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="Q2">
-        <v>16.70528111115926</v>
+        <v>21.945065382252</v>
       </c>
       <c r="R2">
-        <v>16.70528111115926</v>
+        <v>197.505588440268</v>
       </c>
       <c r="S2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
       <c r="T2">
-        <v>0.8613055114466259</v>
+        <v>0.8583439096634812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.78791085457663</v>
+        <v>3.424501</v>
       </c>
       <c r="H3">
-        <v>2.78791085457663</v>
+        <v>10.273503</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.593847247754663</v>
+        <v>0.6824433333333334</v>
       </c>
       <c r="N3">
-        <v>0.593847247754663</v>
+        <v>2.04733</v>
       </c>
       <c r="O3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="P3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="Q3">
-        <v>1.655593187975682</v>
+        <v>2.337027877443334</v>
       </c>
       <c r="R3">
-        <v>1.655593187975682</v>
+        <v>21.03325089699</v>
       </c>
       <c r="S3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
       <c r="T3">
-        <v>0.08536052329968784</v>
+        <v>0.09140887075868921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.78791085457663</v>
+        <v>3.424501</v>
       </c>
       <c r="H4">
-        <v>2.78791085457663</v>
+        <v>10.273503</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.371040701877471</v>
+        <v>0.3751373333333333</v>
       </c>
       <c r="N4">
-        <v>0.371040701877471</v>
+        <v>1.125412</v>
       </c>
       <c r="O4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="P4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
       <c r="Q4">
-        <v>1.034428400253933</v>
+        <v>1.284658173137333</v>
       </c>
       <c r="R4">
-        <v>1.034428400253933</v>
+        <v>11.561923558236</v>
       </c>
       <c r="S4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782962</v>
       </c>
       <c r="T4">
-        <v>0.05333396525368623</v>
+        <v>0.05024721957782963</v>
       </c>
     </row>
   </sheetData>
